--- a/OLRTakeway.Test/inputDataFiles/TestResult.xlsx
+++ b/OLRTakeway.Test/inputDataFiles/TestResult.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemant\workspace\OLRTakewayTest\OLRTakeway.Test\inputDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemant\git\OLRTakeway.Test\inputDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5673E4-DD2A-4B15-A70E-AC0661CE8960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1BA740-1C73-4DE6-ABDD-97DC775CAF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1281E96C-02B5-4776-8718-1136513F00E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8FA4474-24F8-4A41-AB42-C1667E96B4BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+  <si>
+    <t>Test_Case_Number</t>
+  </si>
+  <si>
+    <t>Test_Case_Name</t>
+  </si>
+  <si>
+    <t>Test _Status</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
   <si>
     <t>Test_Case_Number_1</t>
   </si>
@@ -39,26 +51,75 @@
     <t>Test_Case_Number_4</t>
   </si>
   <si>
-    <t>Test_Case_Number</t>
-  </si>
-  <si>
-    <t>Test Case Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status </t>
-  </si>
-  <si>
-    <t>Remark</t>
+    <t>Test_Case_Number_5</t>
+  </si>
+  <si>
+    <t>Verify Launch application is succcessful</t>
+  </si>
+  <si>
+    <t>Verify location seacrch is successful</t>
+  </si>
+  <si>
+    <t>Verify all Restautant displayed success is displayed successfully</t>
+  </si>
+  <si>
+    <t>Verify menu selection and order place successfully</t>
+  </si>
+  <si>
+    <t>Verify personal details filled and order place created successfully</t>
+  </si>
+  <si>
+    <t>Verify Order reference number is generated</t>
+  </si>
+  <si>
+    <t>Test_Case_Number_6</t>
+  </si>
+  <si>
+    <t>Test_Case_Number_7</t>
+  </si>
+  <si>
+    <t>Verify Particular restaurant and meu item are displayed successfully</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Application launch successfully</t>
+  </si>
+  <si>
+    <t>Location and sublocation is successful</t>
+  </si>
+  <si>
+    <t>Restaurant are displayed correctly</t>
+  </si>
+  <si>
+    <t>Menu Items are displayed correctly</t>
+  </si>
+  <si>
+    <t>Selected and order the menu item successfully</t>
+  </si>
+  <si>
+    <t>Personal details entered successfully and order palced</t>
+  </si>
+  <si>
+    <t>Order reference number generated successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,7 +163,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,104 +477,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486D8AB4-A6F9-40AC-9073-B3E54BFC017E}">
-  <dimension ref="G1:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D554EF-EE76-4952-A942-622CCB4CEF52}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="22.44140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="63.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="45.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>